--- a/data/rrv_volatiles_pca_correlation_table_pca_dat_spme.xlsx
+++ b/data/rrv_volatiles_pca_correlation_table_pca_dat_spme.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D53"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -382,177 +382,177 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2-Hexen-1-ol, acetate, (E)-</t>
+          <t>Pinene &lt;1R-alpha-&gt;</t>
         </is>
       </c>
       <c r="B2">
-        <v>1.063522323739603e-016</v>
+        <v>0.001097416170930459</v>
       </c>
       <c r="C2">
-        <v>2.252068526706227e-017</v>
+        <v>0.002100021326266169</v>
       </c>
       <c r="D2">
-        <v>7.024852996622455e-018</v>
+        <v>0.0007483803208667734</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2-Hexenal</t>
+          <t>Pinene &lt;alpha-&gt;</t>
         </is>
       </c>
       <c r="B3">
-        <v>-1.127756580703342e-017</v>
+        <v>-0.00347709842582457</v>
       </c>
       <c r="C3">
-        <v>4.857603500610963e-018</v>
+        <v>0.0002791879531077919</v>
       </c>
       <c r="D3">
-        <v>-3.375610551402425e-019</v>
+        <v>-0.001132910887594164</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2-Thujene</t>
+          <t>Pinene &lt;beta-&gt;</t>
         </is>
       </c>
       <c r="B4">
-        <v>-4.026525499857986e-017</v>
+        <v>-0.01848979030318949</v>
       </c>
       <c r="C4">
-        <v>9.108063573766672e-018</v>
+        <v>-0.01445066078860444</v>
       </c>
       <c r="D4">
-        <v>-5.483183900351713e-019</v>
+        <v>-0.000792494407786816</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2,4,6-Octatriene, 2,6-dimethyl-, (E,Z)-</t>
+          <t>Carene, &lt;3-&gt;</t>
         </is>
       </c>
       <c r="B5">
-        <v>-7.871818473710461e-018</v>
+        <v>-0.02805041482827406</v>
       </c>
       <c r="C5">
-        <v>-4.353207471492635e-019</v>
+        <v>-0.02105234378328991</v>
       </c>
       <c r="D5">
-        <v>-6.178266441106701e-019</v>
+        <v>0.0001726060901403588</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3-Hexen-1-ol Acetate (Z)-</t>
+          <t>Carene &lt;delta-3&gt;</t>
         </is>
       </c>
       <c r="B6">
-        <v>5.418507021966481e-018</v>
+        <v>-0.01035441020739164</v>
       </c>
       <c r="C6">
-        <v>-1.055953772467506e-017</v>
+        <v>0.001157759136252508</v>
       </c>
       <c r="D6">
-        <v>6.948467350977407e-019</v>
+        <v>-0.004624927180428822</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>3-Hexen-1-ol, (Z)-</t>
+          <t>Phellandrene &lt;beta-&gt;</t>
         </is>
       </c>
       <c r="B7">
-        <v>3.477617820067371e-017</v>
+        <v>-0.0002473608475244998</v>
       </c>
       <c r="C7">
-        <v>-9.334823196872033e-018</v>
+        <v>-0.000178569997943666</v>
       </c>
       <c r="D7">
-        <v>1.925278810802743e-019</v>
+        <v>-2.98674034395288e-005</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>5-Hepten-2-one, &lt;6-methyl-&gt;</t>
+          <t>p-Cymene</t>
         </is>
       </c>
       <c r="B8">
-        <v>2.928953536189791e-019</v>
+        <v>-0.001713028112004423</v>
       </c>
       <c r="C8">
-        <v>2.368441789833236e-019</v>
+        <v>0.0003861868947379592</v>
       </c>
       <c r="D8">
-        <v>9.085781378606354e-020</v>
+        <v>-0.000321923670056212</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Acetic acid, hexyl ester</t>
+          <t>D-Limonene</t>
         </is>
       </c>
       <c r="B9">
-        <v>5.904610168575486e-019</v>
+        <v>0.01571429097916415</v>
       </c>
       <c r="C9">
-        <v>1.30111069607453e-018</v>
+        <v>-0.1868979048115508</v>
       </c>
       <c r="D9">
-        <v>5.129903974347233e-019</v>
+        <v>-0.001643927891547432</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Aromadendrene</t>
+          <t>Limonene oxide, trans-</t>
         </is>
       </c>
       <c r="B10">
-        <v>-4.573980334027437e-019</v>
+        <v>1.754805004595872e-006</v>
       </c>
       <c r="C10">
-        <v>7.962474366170713e-019</v>
+        <v>-2.308587960501191e-006</v>
       </c>
       <c r="D10">
-        <v>5.879837702182382e-020</v>
+        <v>-2.341832876213656e-006</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Benzaldehyde &lt;para-ethyl-&gt;</t>
+          <t>Copaene &lt;alpha-&gt;</t>
         </is>
       </c>
       <c r="B11">
-        <v>-9.515755981664062e-007</v>
+        <v>-0.00595393664806535</v>
       </c>
       <c r="C11">
-        <v>-1.58179884187402e-006</v>
+        <v>0.0006868068471799912</v>
       </c>
       <c r="D11">
-        <v>-7.428143626250352e-007</v>
+        <v>0.0007981182393996004</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Bergamotene &lt;alpha-, cis-&gt;</t>
+          <t>Copaene &lt;beta-&gt;</t>
         </is>
       </c>
       <c r="B12">
-        <v>2.632894849338318e-006</v>
+        <v>1.762466389268293e-048</v>
       </c>
       <c r="C12">
-        <v>8.426106316076798e-005</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>8.745028620538119e-006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -562,653 +562,157 @@
         </is>
       </c>
       <c r="B13">
-        <v>0.009840703329498981</v>
+        <v>-0.009837963641587001</v>
       </c>
       <c r="C13">
-        <v>-0.001073445655178371</v>
+        <v>0.00111416601113765</v>
       </c>
       <c r="D13">
-        <v>-3.428205782033006e-005</v>
+        <v>-0.000381475715173449</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Cadina-1,4-diene &lt;trans-&gt;</t>
+          <t>Bergamotene &lt;alpha-, cis-&gt;</t>
         </is>
       </c>
       <c r="B14">
-        <v>1.699397091378148e-020</v>
+        <v>-2.889697543502931e-006</v>
       </c>
       <c r="C14">
-        <v>-5.934019280370129e-020</v>
+        <v>-8.562416254613133e-005</v>
       </c>
       <c r="D14">
-        <v>1.208344778419588e-020</v>
+        <v>2.273409431686874e-005</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Cadinene &lt;delta-&gt;</t>
+          <t>Caryophyllene</t>
         </is>
       </c>
       <c r="B15">
-        <v>-4.824461738043484e-019</v>
+        <v>-0.1298610179842202</v>
       </c>
       <c r="C15">
-        <v>4.473712448446231e-020</v>
+        <v>0.009208432869636912</v>
       </c>
       <c r="D15">
-        <v>-1.104647202361454e-020</v>
+        <v>-0.03014605142289658</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Calamenene</t>
+          <t>Caryophyllene oxide</t>
         </is>
       </c>
       <c r="B16">
-        <v>-2.445269025220186e-019</v>
+        <v>-0.0006011545786005012</v>
       </c>
       <c r="C16">
-        <v>9.173840549877955e-020</v>
+        <v>0.0003043059796724729</v>
       </c>
       <c r="D16">
-        <v>-3.360052658328548e-020</v>
+        <v>-0.001446103426114944</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Camphor</t>
+          <t>Caryophyllene &lt;9-epi-(E)-&gt;</t>
         </is>
       </c>
       <c r="B17">
-        <v>-9.616922726339448e-020</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>2.947928568207273e-020</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>-2.851785545237159e-020</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Carene &lt;delta-3&gt;</t>
+          <t>Murrolene &lt;alpha-&gt;</t>
         </is>
       </c>
       <c r="B18">
-        <v>0.01035673706956965</v>
+        <v>-0.01539988885228192</v>
       </c>
       <c r="C18">
-        <v>-0.001106463477588623</v>
+        <v>-0.0005269605314271609</v>
       </c>
       <c r="D18">
-        <v>0.0002850883644530731</v>
+        <v>1.903924797581554e-005</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Carene, &lt;3-&gt;</t>
+          <t>Murrolene &lt;gamma-&gt;</t>
         </is>
       </c>
       <c r="B19">
-        <v>0.02798350959972196</v>
+        <v>-0.6292472317097214</v>
       </c>
       <c r="C19">
-        <v>0.02120391377656795</v>
+        <v>-0.005234407442522395</v>
       </c>
       <c r="D19">
-        <v>0.01622052383637046</v>
+        <v>0.006280356527961047</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Caryophyllene</t>
+          <t>Muurrolene &lt;gamma-&gt;</t>
         </is>
       </c>
       <c r="B20">
-        <v>0.1298951459348766</v>
+        <v>0</v>
       </c>
       <c r="C20">
-        <v>-0.008723430428890682</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>0.002527814936194559</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Caryophyllene &lt;9-epi-(E)-&gt;</t>
+          <t>Farnesene &lt;(E,E)-, alpha-&gt;</t>
         </is>
       </c>
       <c r="B21">
-        <v>2.632463763769678e-019</v>
+        <v>-0.001429797734890989</v>
       </c>
       <c r="C21">
-        <v>-3.053108108556439e-020</v>
+        <v>0.0001952627013011705</v>
       </c>
       <c r="D21">
-        <v>7.098804021981758e-020</v>
+        <v>-0.0002356839722401913</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Caryophyllene oxide</t>
+          <t>Farnesene &lt;(E)-, beta-&gt;</t>
         </is>
       </c>
       <c r="B22">
-        <v>0.0006007251208146046</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <v>-0.0002896634628234389</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>2.168756562611869e-005</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Copaene &lt;alpha-&gt;</t>
-        </is>
-      </c>
-      <c r="B23">
-        <v>0.0059552678818647</v>
-      </c>
-      <c r="C23">
-        <v>-0.0006598786667550986</v>
-      </c>
-      <c r="D23">
-        <v>-0.000204062397499905</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Copaene &lt;beta-&gt;</t>
-        </is>
-      </c>
-      <c r="B24">
-        <v>2.043138356820852e-022</v>
-      </c>
-      <c r="C24">
-        <v>4.988589829184373e-022</v>
-      </c>
-      <c r="D24">
-        <v>-1.793749675540789e-021</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Cubebene &lt;beta-&gt;</t>
-        </is>
-      </c>
-      <c r="B25">
-        <v>0.008654429837920381</v>
-      </c>
-      <c r="C25">
-        <v>-0.0008595111987012234</v>
-      </c>
-      <c r="D25">
-        <v>-8.954099447462598e-005</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>D-Limonene</t>
-        </is>
-      </c>
-      <c r="B26">
-        <v>-0.01626458759601567</v>
-      </c>
-      <c r="C26">
-        <v>0.1864381646500452</v>
-      </c>
-      <c r="D26">
-        <v>-0.002657077095504107</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Elemene &lt;beta-&gt;</t>
-        </is>
-      </c>
-      <c r="B27">
-        <v>-1.781266774516707e-033</v>
-      </c>
-      <c r="C27">
-        <v>-3.500320463826312e-033</v>
-      </c>
-      <c r="D27">
-        <v>-1.608561721505639e-033</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Farnesene &lt;(E)-, beta-&gt;</t>
-        </is>
-      </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Farnesene &lt;(E,E)-, alpha-&gt;</t>
-        </is>
-      </c>
-      <c r="B29">
-        <v>0.001429661149023867</v>
-      </c>
-      <c r="C29">
-        <v>-0.0001824855542730258</v>
-      </c>
-      <c r="D29">
-        <v>-7.514394610717288e-005</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Germacrene D</t>
-        </is>
-      </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Humulene</t>
-        </is>
-      </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Limonene oxide, trans-</t>
-        </is>
-      </c>
-      <c r="B32">
-        <v>-1.755745316362776e-006</v>
-      </c>
-      <c r="C32">
-        <v>1.792719795522208e-006</v>
-      </c>
-      <c r="D32">
-        <v>-2.426223916115618e-006</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Mesitylene</t>
-        </is>
-      </c>
-      <c r="B33">
-        <v>0.02656591897124929</v>
-      </c>
-      <c r="C33">
-        <v>-0.001287059428230636</v>
-      </c>
-      <c r="D33">
-        <v>0.0007435950205330622</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Methyl Salicylate</t>
-        </is>
-      </c>
-      <c r="B34">
-        <v>0</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Murrolene &lt;alpha-&gt;</t>
-        </is>
-      </c>
-      <c r="B35">
-        <v>0.01539655560475121</v>
-      </c>
-      <c r="C35">
-        <v>0.0006165189604864412</v>
-      </c>
-      <c r="D35">
-        <v>0.0001032722951799038</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Murrolene &lt;gamma-&gt;</t>
-        </is>
-      </c>
-      <c r="B36">
-        <v>0.6292275748189068</v>
-      </c>
-      <c r="C36">
-        <v>0.007075552092442002</v>
-      </c>
-      <c r="D36">
-        <v>-0.001375357432624705</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Muurrolene &lt;gamma-&gt;</t>
-        </is>
-      </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Myrcene &lt;beta-&gt;</t>
-        </is>
-      </c>
-      <c r="B38">
-        <v>0</v>
-      </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Nerolidol</t>
-        </is>
-      </c>
-      <c r="B39">
-        <v>0</v>
-      </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Nona-1,3,7-triene &lt;4-8-dimethyl-, (E)-&gt;</t>
-        </is>
-      </c>
-      <c r="B40">
-        <v>0</v>
-      </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Ocimene, &lt;beta-&gt;</t>
-        </is>
-      </c>
-      <c r="B41">
-        <v>0</v>
-      </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Ocimene, &lt;trans-beta-&gt;</t>
-        </is>
-      </c>
-      <c r="B42">
-        <v>0</v>
-      </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>p-Cymene</t>
-        </is>
-      </c>
-      <c r="B43">
-        <v>0.001716245085462421</v>
-      </c>
-      <c r="C43">
-        <v>-0.0005779460473930559</v>
-      </c>
-      <c r="D43">
-        <v>-0.0007191258201452806</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Pentane, 3-ethyl-2,2-dimethyl-</t>
-        </is>
-      </c>
-      <c r="B44">
-        <v>0</v>
-      </c>
-      <c r="C44">
-        <v>0</v>
-      </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Phellandrene &lt;beta-&gt;</t>
-        </is>
-      </c>
-      <c r="B45">
-        <v>0.0002468086040417713</v>
-      </c>
-      <c r="C45">
-        <v>0.0001800582483553939</v>
-      </c>
-      <c r="D45">
-        <v>8.9105973431909e-006</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Pinene &lt;1R-alpha-&gt;</t>
-        </is>
-      </c>
-      <c r="B46">
-        <v>-0.001091515384362375</v>
-      </c>
-      <c r="C46">
-        <v>-0.00203505174283184</v>
-      </c>
-      <c r="D46">
-        <v>-0.001068924916592275</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Pinene &lt;alpha-&gt;</t>
-        </is>
-      </c>
-      <c r="B47">
-        <v>0.00347800540499628</v>
-      </c>
-      <c r="C47">
-        <v>-0.0002669522150214782</v>
-      </c>
-      <c r="D47">
-        <v>0.0001064180678197415</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Pinene &lt;beta-&gt;</t>
-        </is>
-      </c>
-      <c r="B48">
-        <v>0.01844568916299557</v>
-      </c>
-      <c r="C48">
-        <v>0.01451784158742765</v>
-      </c>
-      <c r="D48">
-        <v>0.006447104862337885</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Terpineol &lt;alpha-&gt;</t>
-        </is>
-      </c>
-      <c r="B49">
-        <v>-1.786947625685878e-006</v>
-      </c>
-      <c r="C49">
-        <v>2.287663984479176e-006</v>
-      </c>
-      <c r="D49">
-        <v>-2.570769821779373e-006</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Toulene</t>
-        </is>
-      </c>
-      <c r="B50">
-        <v>-0.002610219841687348</v>
-      </c>
-      <c r="C50">
-        <v>-0.003604375382295041</v>
-      </c>
-      <c r="D50">
-        <v>0.03336630728201327</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Trivertal</t>
-        </is>
-      </c>
-      <c r="B51">
-        <v>0</v>
-      </c>
-      <c r="C51">
-        <v>0</v>
-      </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
-      </c>
-      <c r="B52">
-        <v>0</v>
-      </c>
-      <c r="C52">
-        <v>0</v>
-      </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Xylene &lt;m-&gt;</t>
-        </is>
-      </c>
-      <c r="B53">
-        <v>-0.008616281989133617</v>
-      </c>
-      <c r="C53">
-        <v>0.1275539705569854</v>
-      </c>
-      <c r="D53">
-        <v>0.001632872607545844</v>
+        <v>-0</v>
       </c>
     </row>
   </sheetData>
